--- a/BEC.MI.xlsx
+++ b/BEC.MI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Indexes" sheetId="1" state="visible" r:id="rId1"/>
@@ -199,7 +199,7 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -208,6 +208,9 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="1" applyNumberFormat="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="1" applyNumberFormat="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="5" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -756,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>52728000</v>
+        <v>70864227</v>
       </c>
     </row>
     <row r="4" ht="15.75">
@@ -764,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>917000</v>
+        <v>21787616</v>
       </c>
     </row>
     <row r="5" ht="15.75">
@@ -772,8 +775,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <f>B3/B4</f>
-        <v>57.500545256270449</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -782,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>74469000</v>
+        <v>87264261</v>
       </c>
     </row>
     <row r="8" ht="15.75">
@@ -790,7 +792,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>2318000</v>
+        <f>2318181+6692427+621360</f>
+        <v>9631968</v>
       </c>
     </row>
     <row r="9" ht="15.75">
@@ -798,7 +801,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>16268000</v>
+        <f>87261261-55195227</f>
+        <v>32066034</v>
       </c>
     </row>
     <row r="10" ht="15.75">
@@ -807,15 +811,15 @@
       </c>
       <c r="B10" s="4">
         <f>B7-B8-B9</f>
-        <v>55883000</v>
+        <v>45566259</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>17.949999999999999</v>
+      <c r="B12" s="8">
+        <v>18.199999999999999</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -823,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>10909700</v>
+        <v>10728800</v>
       </c>
     </row>
     <row r="14" ht="15.75">
@@ -831,16 +835,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>195829120</v>
+        <v>195264176</v>
       </c>
     </row>
     <row r="15" ht="15.75">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="9">
         <f>B14-B10</f>
-        <v>139946120</v>
+        <v>149697917</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1"/>
@@ -848,19 +852,19 @@
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <f>B14/B10</f>
-        <v>3.504269992663243</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>4.2852799480422563</v>
+      </c>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" ht="15.75">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="9">
         <f>B10/B13</f>
-        <v>5.122322337002851</v>
+        <v>4.2470974386697486</v>
       </c>
       <c r="C18" s="7"/>
     </row>
@@ -906,7 +910,7 @@
       <c r="D24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1884,7 +1888,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="lessThan" id="{00130082-0093-4761-B2C3-00EC004E000A}">
+          <x14:cfRule type="cellIs" priority="19" operator="lessThan" id="{0028000B-000F-4FD2-A9C3-006B004600B8}">
             <xm:f>"1,5"</xm:f>
             <x14:dxf>
               <font>
@@ -1901,7 +1905,24 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="lessThanOrEqual" id="{00CC0048-00B3-42B5-9678-002200960070}">
+          <x14:cfRule type="cellIs" priority="19" operator="greaterThan" id="{00760088-00FB-4CFC-8BF1-008F0053000F}">
+            <xm:f>1,60001</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="18" operator="lessThanOrEqual" id="{00B20047-0011-4B1F-A1AD-00550057005A}">
             <xm:f>"1,5"</xm:f>
             <x14:dxf>
               <font>
@@ -1918,7 +1939,7 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="between" id="{005800DE-006A-468E-9453-004D005200A7}">
+          <x14:cfRule type="cellIs" priority="17" operator="between" id="{00BF0027-0089-43A8-80A8-0003006400BE}">
             <xm:f>"1,5"</xm:f>
             <xm:f>2</xm:f>
             <x14:dxf>
@@ -1936,7 +1957,25 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="greaterThan" id="{00D20066-0082-4128-B115-00AD00440097}">
+          <x14:cfRule type="cellIs" priority="17" operator="between" id="{00C3009B-00BB-49FA-B096-003000720013}">
+            <xm:f>1,0001</xm:f>
+            <xm:f>1,6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="16" operator="greaterThan" id="{00AA002A-00A6-47EA-91B2-004A00DE0065}">
             <xm:f>2</xm:f>
             <x14:dxf>
               <font>
@@ -1953,7 +1992,24 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="between" id="{006A00A6-0038-4644-BA51-00E5005F0071}">
+          <x14:cfRule type="cellIs" priority="16" operator="lessThan" id="{00A200EF-006A-4A43-9336-001300E60074}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" operator="between" id="{009D001A-00CE-4D43-B9E3-001F002E0034}">
             <xm:f>"1,5"</xm:f>
             <xm:f>2</xm:f>
             <x14:dxf>
@@ -1971,7 +2027,7 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="between" id="{00E20087-00C0-45A6-BEF2-007D004C0026}">
+          <x14:cfRule type="cellIs" priority="14" operator="between" id="{00D3006E-00BB-491C-B680-0057003E004E}">
             <xm:f>"1,5"</xm:f>
             <xm:f>2</xm:f>
             <x14:dxf>
@@ -1989,7 +2045,7 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="lessThanOrEqual" id="{00120096-00BE-4197-97B5-006000E600ED}">
+          <x14:cfRule type="cellIs" priority="13" operator="lessThanOrEqual" id="{003D00C1-00BF-4E73-8C52-007A0001009D}">
             <xm:f>15</xm:f>
             <x14:dxf>
               <font>
@@ -2006,7 +2062,7 @@
           <xm:sqref>B20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="lessThanOrEqual" id="{00650086-00CE-4563-BFAC-005E00BD00C1}">
+          <x14:cfRule type="cellIs" priority="12" operator="lessThanOrEqual" id="{001B007F-008B-42E4-87A9-0097004800B2}">
             <xm:f>"22,5"</xm:f>
             <x14:dxf>
               <font>
@@ -2023,7 +2079,7 @@
           <xm:sqref>B23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="lessThanOrEqual" id="{005A00AC-00FD-4BDC-BCBA-00AB009700E1}">
+          <x14:cfRule type="cellIs" priority="11" operator="lessThanOrEqual" id="{006E0027-0075-4D7D-8454-009400450051}">
             <xm:f>"22,5"</xm:f>
             <x14:dxf>
               <font>
@@ -2040,7 +2096,7 @@
           <xm:sqref>B23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="lessThanOrEqual" id="{00040082-004D-45D6-9819-005E00EA004E}">
+          <x14:cfRule type="cellIs" priority="10" operator="lessThanOrEqual" id="{007F00CC-00F7-433E-8429-00AA001100F1}">
             <xm:f>"22,5"</xm:f>
             <x14:dxf>
               <font>
@@ -2057,7 +2113,7 @@
           <xm:sqref>B23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="lessThanOrEqual" id="{008A0025-0036-40A9-A6D6-00F400630050}">
+          <x14:cfRule type="cellIs" priority="9" operator="lessThanOrEqual" id="{00560096-002E-43A0-957F-00E600260040}">
             <xm:f>"22,5"</xm:f>
             <x14:dxf>
               <font>
@@ -2074,7 +2130,7 @@
           <xm:sqref>B23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="between" id="{00A800D6-001F-4CB2-A251-00CA006300F1}">
+          <x14:cfRule type="cellIs" priority="8" operator="between" id="{0044003F-005C-450B-89B2-00A900E5009C}">
             <xm:f>7</xm:f>
             <xm:f>9</xm:f>
             <x14:dxf>
@@ -2092,7 +2148,7 @@
           <xm:sqref>B24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{002C007C-00E9-43D2-90C2-00A6007C0081}">
+          <x14:cfRule type="cellIs" priority="7" operator="greaterThan" id="{005A0096-0066-415E-BBA4-00290011009B}">
             <xm:f>9</xm:f>
             <x14:dxf>
               <font>
@@ -2107,58 +2163,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>B24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{007A0021-0065-4FEE-BDB1-002F00F80011}">
-            <xm:f>"1,5"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThanOrEqual" id="{00080071-00D8-416D-8279-0070005300F8}">
-            <xm:f>"0,8"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="between" id="{00E2003E-007E-45BD-9ECF-005A00BC0050}">
-            <xm:f>"0,8"</xm:f>
-            <xm:f>"1,5"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2184,15 +2188,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75">
-      <c r="A2" s="10">
+      <c r="A2" s="13">
         <v>2015</v>
       </c>
       <c r="B2" s="4">
@@ -2200,7 +2204,7 @@
       </c>
     </row>
     <row r="3" ht="15.75">
-      <c r="A3" s="10">
+      <c r="A3" s="13">
         <v>2016</v>
       </c>
       <c r="B3" s="4">
@@ -2208,7 +2212,7 @@
       </c>
     </row>
     <row r="4" ht="15.75">
-      <c r="A4" s="10">
+      <c r="A4" s="13">
         <v>2017</v>
       </c>
       <c r="B4" s="4">
@@ -2216,7 +2220,7 @@
       </c>
     </row>
     <row r="5" ht="15.75">
-      <c r="A5" s="10">
+      <c r="A5" s="13">
         <v>2018</v>
       </c>
       <c r="B5" s="4">
@@ -2224,7 +2228,7 @@
       </c>
     </row>
     <row r="6" ht="15.75">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <v>2019</v>
       </c>
       <c r="B6" s="4">
@@ -2232,7 +2236,7 @@
       </c>
     </row>
     <row r="7" ht="15.75">
-      <c r="A7" s="10">
+      <c r="A7" s="13">
         <v>2020</v>
       </c>
       <c r="B7" s="4">
@@ -2240,7 +2244,7 @@
       </c>
     </row>
     <row r="8" ht="15.75">
-      <c r="A8" s="10">
+      <c r="A8" s="13">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
@@ -2248,7 +2252,7 @@
       </c>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="10">
+      <c r="A9" s="13">
         <v>2022</v>
       </c>
       <c r="B9" s="4">
@@ -2256,27 +2260,27 @@
       </c>
     </row>
     <row r="10" ht="15.75">
-      <c r="A10" s="10">
+      <c r="A10" s="13">
         <v>2023</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>13905000</v>
       </c>
     </row>
     <row r="11" ht="15.75">
-      <c r="A11" s="10">
+      <c r="A11" s="13">
         <v>2024</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>18151000</v>
       </c>
     </row>
     <row r="12" ht="15.75">
-      <c r="A12" s="10">
+      <c r="A12" s="13">
         <v>2025</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>3534000</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -2324,13 +2328,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2341,7 +2345,7 @@
       <c r="B2" s="4">
         <v>10.91</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="15">
         <v>0.32000000000000001</v>
       </c>
     </row>
